--- a/REF OPERACIONAIS Atrium-4 - VER1.xlsx
+++ b/REF OPERACIONAIS Atrium-4 - VER1.xlsx
@@ -972,7 +972,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
